--- a/final_quote.xlsx
+++ b/final_quote.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PAN-SOFTWARE-NGFW-CR</t>
+          <t>Samar</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E10" t="n">
-        <v>208.98</v>
+        <v>432</v>
       </c>
       <c r="F10" t="n">
-        <v>20898</v>
+        <v>475200</v>
       </c>
     </row>
     <row r="11">
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
         <v>201.24</v>
       </c>
       <c r="F11" t="n">
-        <v>402480</v>
+        <v>20124</v>
       </c>
     </row>
     <row r="14">
